--- a/cmdcount.xlsx
+++ b/cmdcount.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11370" windowWidth="21600" xWindow="3690" yWindow="3900"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11370" windowWidth="21600" xWindow="780" yWindow="780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,6 @@
   <fonts count="2">
     <font>
       <name val="新細明體"/>
-      <charset val="136"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -28,7 +27,7 @@
     <font>
       <name val="新細明體"/>
       <charset val="136"/>
-      <family val="2"/>
+      <family val="3"/>
       <sz val="9"/>
       <scheme val="minor"/>
     </font>
@@ -51,14 +50,9 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -153,7 +147,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -165,7 +159,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -212,23 +206,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -264,23 +241,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -437,45 +397,29 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="1" width="49"/>
+    <col customWidth="1" max="7" min="7" width="15.5703125"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="n">
-        <v>2</v>
+      <c r="A1" t="n">
+        <v>1</v>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>431016551261405195</t>
         </is>
       </c>
-      <c r="C1" s="0" t="n">
-        <v>9</v>
+      <c r="C1" t="n">
+        <v>18</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>596331501420019732</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="0" t="n"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="0" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/cmdcount.xlsx
+++ b/cmdcount.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11370" windowWidth="21600" xWindow="780" yWindow="780"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11370" windowWidth="21600" xWindow="3315" yWindow="3150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -397,10 +397,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
@@ -418,7 +418,87 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>18</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>463860452884217856</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>568754491101544448</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>539455628159090688</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>677186452353974302</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>415482984171307009</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>630250004505952256</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>599259408945643543</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>652752179920240640</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/cmdcount.xlsx
+++ b/cmdcount.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>126</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2">
@@ -438,7 +438,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -499,6 +499,16 @@
       </c>
       <c r="C9" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>596331501420019732</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/cmdcount.xlsx
+++ b/cmdcount.xlsx
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>160</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2">
@@ -438,7 +438,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">

--- a/cmdcount.xlsx
+++ b/cmdcount.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2">
@@ -509,6 +509,16 @@
       </c>
       <c r="C10" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>454990113190051841</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/cmdcount.xlsx
+++ b/cmdcount.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>188</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -519,6 +519,26 @@
       </c>
       <c r="C11" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>487804795902492712</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>612960027061518358</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/cmdcount.xlsx
+++ b/cmdcount.xlsx
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">

--- a/cmdcount.xlsx
+++ b/cmdcount.xlsx
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2">

--- a/cmdcount.xlsx
+++ b/cmdcount.xlsx
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>233</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2">

--- a/cmdcount.xlsx
+++ b/cmdcount.xlsx
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>253</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">

--- a/cmdcount.xlsx
+++ b/cmdcount.xlsx
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2">

--- a/cmdcount.xlsx
+++ b/cmdcount.xlsx
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2">

--- a/cmdcount.xlsx
+++ b/cmdcount.xlsx
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>303</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2">

--- a/cmdcount.xlsx
+++ b/cmdcount.xlsx
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>336</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2">

--- a/cmdcount.xlsx
+++ b/cmdcount.xlsx
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>356</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2">

--- a/cmdcount.xlsx
+++ b/cmdcount.xlsx
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2">

--- a/cmdcount.xlsx
+++ b/cmdcount.xlsx
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2">

--- a/cmdcount.xlsx
+++ b/cmdcount.xlsx
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2">

--- a/cmdcount.xlsx
+++ b/cmdcount.xlsx
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2">

--- a/cmdcount.xlsx
+++ b/cmdcount.xlsx
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>402</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2">

--- a/cmdcount.xlsx
+++ b/cmdcount.xlsx
@@ -397,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2">
@@ -538,6 +538,16 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>721209880400363540</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>1</v>
       </c>
     </row>

--- a/cmdcount.xlsx
+++ b/cmdcount.xlsx
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>414</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2">

--- a/cmdcount.xlsx
+++ b/cmdcount.xlsx
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>424</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">

--- a/cmdcount.xlsx
+++ b/cmdcount.xlsx
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>443</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2">
